--- a/calculoBit.xlsx
+++ b/calculoBit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>bitcoin</t>
   </si>
@@ -51,6 +51,39 @@
   </si>
   <si>
     <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>1~50</t>
+  </si>
+  <si>
+    <t>51~100</t>
+  </si>
+  <si>
+    <t>S/.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>101~500</t>
+  </si>
+  <si>
+    <t>1001~3000</t>
+  </si>
+  <si>
+    <t>501~1000</t>
+  </si>
+  <si>
+    <t>3001~6000</t>
+  </si>
+  <si>
+    <t>6001~12000</t>
+  </si>
+  <si>
+    <t>12001~24000</t>
+  </si>
+  <si>
+    <t>24001~50000</t>
   </si>
 </sst>
 </file>
@@ -107,11 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,14 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:L9"/>
+  <dimension ref="E5:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,6 +557,86 @@
         <v>1940.7758000000001</v>
       </c>
     </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
